--- a/Database/PM.xlsx
+++ b/Database/PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/GitHub/FR.POL.GEN/FR.POL.GEN/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CC0DFE-92B7-8D49-BB2A-BDC7CD759122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DF9F0-D84E-9B48-84F5-3D8866759193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26140" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
   <si>
     <t>date</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>UNR</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>1962-04-26</t>
@@ -1702,8 +1699,8 @@
   </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1832,14 +1829,12 @@
         <v>19</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="7">
         <v>78.510000000000005</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="7">
         <v>1958</v>
       </c>
@@ -1881,26 +1876,24 @@
     </row>
     <row r="4" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="12">
         <v>55.2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="11"/>
       <c r="H4" s="12">
         <v>1958</v>
       </c>
@@ -1942,19 +1935,19 @@
     </row>
     <row r="5" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="12">
         <v>55.2</v>
@@ -2003,26 +1996,24 @@
     </row>
     <row r="6" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="12">
         <v>58.21</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="G6" s="11"/>
       <c r="H6" s="12">
         <v>1969</v>
       </c>
@@ -2064,19 +2055,19 @@
     </row>
     <row r="7" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="12">
         <v>58.21</v>
@@ -2125,19 +2116,19 @@
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="12">
         <v>50.81</v>
@@ -2186,19 +2177,19 @@
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="12">
         <v>50.81</v>
@@ -2247,26 +2238,24 @@
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="12">
         <v>51.76</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="12">
         <v>1981</v>
       </c>
@@ -2308,26 +2297,24 @@
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="12">
         <v>51.76</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="12">
         <v>1981</v>
       </c>
@@ -2369,26 +2356,24 @@
     </row>
     <row r="12" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="12">
         <v>51.76</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="12">
         <v>1981</v>
       </c>
@@ -2430,19 +2415,19 @@
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="12">
         <v>54.02</v>
@@ -2491,19 +2476,19 @@
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="12">
         <v>54.02</v>
@@ -2552,19 +2537,19 @@
     </row>
     <row r="15" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="12">
         <v>54.02</v>
@@ -2613,19 +2598,19 @@
     </row>
     <row r="16" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="12">
         <v>54.02</v>
@@ -2674,19 +2659,19 @@
     </row>
     <row r="17" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="12">
         <v>52.64</v>
@@ -2735,19 +2720,19 @@
     </row>
     <row r="18" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="12">
         <v>52.64</v>
@@ -2796,19 +2781,19 @@
     </row>
     <row r="19" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="12">
         <v>82.21</v>
@@ -2857,19 +2842,19 @@
     </row>
     <row r="20" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="12">
         <v>82.21</v>
@@ -2918,19 +2903,19 @@
     </row>
     <row r="21" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="12">
         <v>82.21</v>
@@ -2979,19 +2964,19 @@
     </row>
     <row r="22" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="12">
         <v>53.06</v>
@@ -3040,19 +3025,19 @@
     </row>
     <row r="23" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="12">
         <v>53.06</v>
@@ -3101,19 +3086,19 @@
     </row>
     <row r="24" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="12">
         <v>51.64</v>
@@ -3162,19 +3147,19 @@
     </row>
     <row r="25" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="12">
         <v>51.64</v>
@@ -3223,19 +3208,19 @@
     </row>
     <row r="26" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="12">
         <v>51.64</v>
@@ -3284,19 +3269,19 @@
     </row>
     <row r="27" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="12">
         <v>51.64</v>
@@ -3345,19 +3330,19 @@
     </row>
     <row r="28" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="12">
         <v>66.099999999999994</v>
@@ -3406,19 +3391,19 @@
     </row>
     <row r="29" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="D29" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" s="12">
         <v>66.099999999999994</v>
@@ -3467,19 +3452,19 @@
     </row>
     <row r="30" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="12">
         <v>58.55</v>
@@ -3528,19 +3513,19 @@
     </row>
     <row r="31" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="C31" s="12">
         <v>2024</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="12">
         <v>58.55</v>

--- a/Database/PM.xlsx
+++ b/Database/PM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/GitHub/FR.POL.GEN/FR.POL.GEN/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DF9F0-D84E-9B48-84F5-3D8866759193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB20D1C-44C2-F84A-9603-F5B5913227B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26140" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="26140" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1 - Version 2-Tableau 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
   <si>
     <t>date</t>
   </si>
@@ -344,13 +344,25 @@
   </si>
   <si>
     <t>centre</t>
+  </si>
+  <si>
+    <t>Barnier</t>
+  </si>
+  <si>
+    <t>2024-2024</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -372,6 +384,11 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -515,7 +532,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -562,6 +579,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1697,10 +1717,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1726,33 +1746,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
     </row>
     <row r="2" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -3518,8 +3538,8 @@
       <c r="B31" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="12">
-        <v>2024</v>
+      <c r="C31" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>104</v>
@@ -3572,10 +3592,28 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
     </row>
+    <row r="32" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2024</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:AA1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/Database/PM.xlsx
+++ b/Database/PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/GitHub/FR.POL.GEN/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB38602B-A88A-424C-A8EB-221B5632C019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3AF80F-3FE6-0140-B143-D7939BD5A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="980" windowWidth="27340" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42080" yWindow="1360" windowWidth="27340" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1 - PM" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -377,6 +377,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -520,7 +526,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -558,6 +564,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1692,8 +1701,8 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3219,8 +3228,8 @@
       <c r="D31" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>20</v>
+      <c r="E31" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F31" s="11">
         <v>58.55</v>
